--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.677443125156881</v>
+        <v>3.882106333333333</v>
       </c>
       <c r="H2">
-        <v>0.677443125156881</v>
+        <v>11.646319</v>
       </c>
       <c r="I2">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154582</v>
       </c>
       <c r="J2">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154581</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>71.66045580473912</v>
+        <v>454.3794393045323</v>
       </c>
       <c r="R2">
-        <v>71.66045580473912</v>
+        <v>4089.414953740791</v>
       </c>
       <c r="S2">
-        <v>0.0814060676716392</v>
+        <v>0.203074655624418</v>
       </c>
       <c r="T2">
-        <v>0.0814060676716392</v>
+        <v>0.2030746556244179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.677443125156881</v>
+        <v>3.882106333333333</v>
       </c>
       <c r="H3">
-        <v>0.677443125156881</v>
+        <v>11.646319</v>
       </c>
       <c r="I3">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154582</v>
       </c>
       <c r="J3">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154581</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>68.7545603024228</v>
+        <v>394.3445062719698</v>
       </c>
       <c r="R3">
-        <v>68.7545603024228</v>
+        <v>3549.100556447728</v>
       </c>
       <c r="S3">
-        <v>0.07810497890166476</v>
+        <v>0.1762433945759803</v>
       </c>
       <c r="T3">
-        <v>0.07810497890166476</v>
+        <v>0.1762433945759803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.677443125156881</v>
+        <v>3.882106333333333</v>
       </c>
       <c r="H4">
-        <v>0.677443125156881</v>
+        <v>11.646319</v>
       </c>
       <c r="I4">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154582</v>
       </c>
       <c r="J4">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154581</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>95.09523079757169</v>
+        <v>551.3630983739324</v>
       </c>
       <c r="R4">
-        <v>95.09523079757169</v>
+        <v>4962.267885365392</v>
       </c>
       <c r="S4">
-        <v>0.1080279033481296</v>
+        <v>0.2464193175150599</v>
       </c>
       <c r="T4">
-        <v>0.1080279033481296</v>
+        <v>0.2464193175150598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.14086631469494</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H5">
-        <v>1.14086631469494</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I5">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="J5">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>120.6817178997568</v>
+        <v>178.2007763308977</v>
       </c>
       <c r="R5">
-        <v>120.6817178997568</v>
+        <v>1603.806986978079</v>
       </c>
       <c r="S5">
-        <v>0.1370940776716015</v>
+        <v>0.07964282305728884</v>
       </c>
       <c r="T5">
-        <v>0.1370940776716015</v>
+        <v>0.07964282305728881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.14086631469494</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H6">
-        <v>1.14086631469494</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I6">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="J6">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>115.7879664252718</v>
+        <v>154.6559793001369</v>
       </c>
       <c r="R6">
-        <v>115.7879664252718</v>
+        <v>1391.903813701232</v>
       </c>
       <c r="S6">
-        <v>0.131534790346028</v>
+        <v>0.06912000636451146</v>
       </c>
       <c r="T6">
-        <v>0.131534790346028</v>
+        <v>0.06912000636451143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.14086631469494</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H7">
-        <v>1.14086631469494</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I7">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="J7">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>160.1476810026912</v>
+        <v>216.2363075248943</v>
       </c>
       <c r="R7">
-        <v>160.1476810026912</v>
+        <v>1946.126767724048</v>
       </c>
       <c r="S7">
-        <v>0.1819272960345724</v>
+        <v>0.09664194698449603</v>
       </c>
       <c r="T7">
-        <v>0.1819272960345724</v>
+        <v>0.096641946984496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.713819528120212</v>
+        <v>0.7994406666666668</v>
       </c>
       <c r="H8">
-        <v>0.713819528120212</v>
+        <v>2.398322</v>
       </c>
       <c r="I8">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="J8">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>75.50837974121053</v>
+        <v>93.57018347442867</v>
       </c>
       <c r="R8">
-        <v>75.50837974121053</v>
+        <v>842.1316512698581</v>
       </c>
       <c r="S8">
-        <v>0.08577729798060127</v>
+        <v>0.04181908586107469</v>
       </c>
       <c r="T8">
-        <v>0.08577729798060127</v>
+        <v>0.04181908586107468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.713819528120212</v>
+        <v>0.7994406666666668</v>
       </c>
       <c r="H9">
-        <v>0.713819528120212</v>
+        <v>2.398322</v>
       </c>
       <c r="I9">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="J9">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>72.44644748564336</v>
+        <v>81.2072127657849</v>
       </c>
       <c r="R9">
-        <v>72.44644748564336</v>
+        <v>730.8649148920641</v>
       </c>
       <c r="S9">
-        <v>0.0822989519164643</v>
+        <v>0.03629373457538424</v>
       </c>
       <c r="T9">
-        <v>0.0822989519164643</v>
+        <v>0.03629373457538423</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.713819528120212</v>
+        <v>0.7994406666666668</v>
       </c>
       <c r="H10">
-        <v>0.713819528120212</v>
+        <v>2.398322</v>
       </c>
       <c r="I10">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="J10">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>100.2015228343864</v>
+        <v>113.5419911491663</v>
       </c>
       <c r="R10">
-        <v>100.2015228343864</v>
+        <v>1021.877920342496</v>
       </c>
       <c r="S10">
-        <v>0.113828636129299</v>
+        <v>0.05074503544178668</v>
       </c>
       <c r="T10">
-        <v>0.113828636129299</v>
+        <v>0.05074503544178666</v>
       </c>
     </row>
   </sheetData>
